--- a/questions.xlsx
+++ b/questions.xlsx
@@ -326,7 +326,7 @@
   </sheetPr>
   <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
